--- a/TenderProcessingCode/TenderProcessing/obj/Release/Package/PackageTmp/bin/App_Data/Specification_fin.xlsx
+++ b/TenderProcessingCode/TenderProcessing/obj/Release/Package/PackageTmp/bin/App_Data/Specification_fin.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoogleDrive\Dev\GitHub\SpeClac\TenderProcessing\TenderProcessingCode\TenderProcessing\App_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoogleDrive\Dev\GitHub\SpeCalc\TenderProcessing\TenderProcessingCode\TenderProcessing\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="WorkSheet" sheetId="19" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">WorkSheet!$A$13:$M$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">WorkSheet!$A$14:$M$21</definedName>
     <definedName name="OLE_LINK1" localSheetId="0">WorkSheet!#REF!</definedName>
     <definedName name="OLE_LINK3" localSheetId="0">WorkSheet!#REF!</definedName>
     <definedName name="OLE_LINK5" localSheetId="0">WorkSheet!#REF!</definedName>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Курс Доллара</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>Цена, EUR Ricoh от снаб.</t>
+  </si>
+  <si>
+    <t>Курс Евро Ricoh</t>
   </si>
 </sst>
 </file>
@@ -801,11 +804,11 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V53"/>
+  <dimension ref="A1:V54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -843,48 +846,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-    </row>
-    <row r="4" spans="1:22" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="11"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
       <c r="P4" s="16"/>
@@ -899,7 +881,7 @@
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="47"/>
@@ -924,221 +906,227 @@
     <row r="6" spans="1:22" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
+      <c r="C6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
       <c r="R6" s="21"/>
       <c r="S6" s="21"/>
       <c r="T6" s="21"/>
       <c r="U6" s="21"/>
       <c r="V6" s="21"/>
     </row>
-    <row r="7" spans="1:22" s="6" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
+      <c r="C7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
     </row>
     <row r="8" spans="1:22" s="6" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
+        <v>5</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
     </row>
     <row r="9" spans="1:22" s="6" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
     </row>
     <row r="10" spans="1:22" s="6" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
+        <v>7</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
     </row>
     <row r="11" spans="1:22" s="6" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+    </row>
+    <row r="12" spans="1:22" s="6" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-    </row>
-    <row r="12" spans="1:22" s="6" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="7" t="s">
+      <c r="D12" s="14"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+    </row>
+    <row r="13" spans="1:22" s="6" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-    </row>
-    <row r="13" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="22" t="s">
+      <c r="D13" s="24"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+    </row>
+    <row r="14" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B14" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C14" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D14" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E14" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F14" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G14" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="H14" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="23" t="s">
+      <c r="I14" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="23" t="s">
+      <c r="J14" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="K13" s="23" t="s">
+      <c r="K14" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="L13" s="23" t="s">
+      <c r="L14" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="M13" s="23" t="s">
+      <c r="M14" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="23" t="s">
+      <c r="N14" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="O13" s="23" t="s">
+      <c r="O14" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="P13" s="23" t="s">
+      <c r="P14" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="23" t="s">
+      <c r="Q14" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="R13" s="23" t="s">
+      <c r="R14" s="23" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="27"/>
     </row>
     <row r="15" spans="1:22" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="30"/>
@@ -1160,7 +1148,7 @@
       <c r="Q15" s="36"/>
       <c r="R15" s="27"/>
     </row>
-    <row r="16" spans="1:22" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="30"/>
       <c r="B16" s="30"/>
       <c r="C16" s="31"/>
@@ -1180,18 +1168,18 @@
       <c r="Q16" s="36"/>
       <c r="R16" s="27"/>
     </row>
-    <row r="17" spans="1:18" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="30"/>
       <c r="B17" s="30"/>
-      <c r="C17" s="38"/>
+      <c r="C17" s="31"/>
       <c r="D17" s="32"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
       <c r="G17" s="34"/>
       <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
       <c r="L17" s="36"/>
       <c r="M17" s="36"/>
       <c r="N17" s="36"/>
@@ -1203,7 +1191,7 @@
     <row r="18" spans="1:18" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="30"/>
       <c r="B18" s="30"/>
-      <c r="C18" s="31"/>
+      <c r="C18" s="38"/>
       <c r="D18" s="32"/>
       <c r="E18" s="33"/>
       <c r="F18" s="33"/>
@@ -1223,22 +1211,22 @@
     <row r="19" spans="1:18" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="30"/>
       <c r="B19" s="30"/>
-      <c r="C19" s="38"/>
+      <c r="C19" s="31"/>
       <c r="D19" s="32"/>
       <c r="E19" s="33"/>
       <c r="F19" s="33"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
       <c r="L19" s="36"/>
       <c r="M19" s="36"/>
       <c r="N19" s="36"/>
       <c r="O19" s="36"/>
       <c r="P19" s="36"/>
       <c r="Q19" s="36"/>
-      <c r="R19" s="28"/>
+      <c r="R19" s="27"/>
     </row>
     <row r="20" spans="1:18" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="30"/>
@@ -1327,11 +1315,11 @@
       <c r="D24" s="32"/>
       <c r="E24" s="33"/>
       <c r="F24" s="33"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
       <c r="L24" s="36"/>
       <c r="M24" s="36"/>
       <c r="N24" s="36"/>
@@ -1352,12 +1340,12 @@
       <c r="I25" s="40"/>
       <c r="J25" s="40"/>
       <c r="K25" s="40"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="42"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
       <c r="R25" s="28"/>
     </row>
     <row r="26" spans="1:18" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -1367,37 +1355,38 @@
       <c r="D26" s="32"/>
       <c r="E26" s="33"/>
       <c r="F26" s="33"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
       <c r="I26" s="40"/>
       <c r="J26" s="40"/>
       <c r="K26" s="40"/>
       <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="41"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="42"/>
       <c r="R26" s="28"/>
     </row>
-    <row r="27" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="30"/>
       <c r="B27" s="30"/>
       <c r="C27" s="38"/>
       <c r="D27" s="32"/>
       <c r="E27" s="33"/>
       <c r="F27" s="33"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="28"/>
     </row>
     <row r="28" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="30"/>
@@ -1503,9 +1492,9 @@
       <c r="F33" s="33"/>
       <c r="G33" s="25"/>
       <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
       <c r="L33" s="25"/>
       <c r="M33" s="25"/>
       <c r="N33" s="25"/>
@@ -1666,8 +1655,8 @@
       <c r="Q41" s="25"/>
     </row>
     <row r="42" spans="1:17" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
+      <c r="A42" s="30"/>
+      <c r="B42" s="30"/>
       <c r="C42" s="38"/>
       <c r="D42" s="32"/>
       <c r="E42" s="33"/>
@@ -1726,19 +1715,20 @@
       <c r="A45" s="25"/>
       <c r="B45" s="25"/>
       <c r="C45" s="38"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="39"/>
-      <c r="K45" s="39"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="39"/>
-      <c r="N45" s="39"/>
-      <c r="O45" s="39"/>
-      <c r="P45" s="39"/>
-      <c r="Q45" s="39"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="25"/>
+      <c r="O45" s="25"/>
+      <c r="P45" s="25"/>
+      <c r="Q45" s="25"/>
     </row>
     <row r="46" spans="1:17" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="25"/>
@@ -1795,8 +1785,8 @@
       <c r="Q48" s="39"/>
     </row>
     <row r="49" spans="1:17" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="30"/>
-      <c r="B49" s="30"/>
+      <c r="A49" s="25"/>
+      <c r="B49" s="25"/>
       <c r="C49" s="38"/>
       <c r="E49" s="43"/>
       <c r="F49" s="25"/>
@@ -1849,8 +1839,9 @@
       <c r="Q51" s="39"/>
     </row>
     <row r="52" spans="1:17" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="25"/>
-      <c r="B52" s="25"/>
+      <c r="A52" s="30"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="38"/>
       <c r="E52" s="43"/>
       <c r="F52" s="25"/>
       <c r="G52" s="39"/>
@@ -1882,17 +1873,34 @@
       <c r="P53" s="39"/>
       <c r="Q53" s="39"/>
     </row>
+    <row r="54" spans="1:17" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="39"/>
+      <c r="K54" s="39"/>
+      <c r="L54" s="39"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="39"/>
+      <c r="O54" s="39"/>
+      <c r="P54" s="39"/>
+      <c r="Q54" s="39"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A13:M20"/>
+  <autoFilter ref="A14:M21"/>
   <mergeCells count="8">
+    <mergeCell ref="E12:M12"/>
+    <mergeCell ref="E9:M9"/>
+    <mergeCell ref="E10:M10"/>
+    <mergeCell ref="E8:M8"/>
+    <mergeCell ref="E5:M5"/>
+    <mergeCell ref="E6:M6"/>
     <mergeCell ref="E11:M11"/>
-    <mergeCell ref="E8:M8"/>
-    <mergeCell ref="E9:M9"/>
     <mergeCell ref="E7:M7"/>
-    <mergeCell ref="E4:M4"/>
-    <mergeCell ref="E5:M5"/>
-    <mergeCell ref="E10:M10"/>
-    <mergeCell ref="E6:M6"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="55" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -1900,6 +1908,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x010100EE0BF2D0F7DB87478EC6A86FB2228652" ma:contentTypeVersion="0" ma:contentTypeDescription="Создание документа." ma:contentTypeScope="" ma:versionID="6f37d12a6793316348e7f13d94897d83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555e4f5434b0d6e16c19fe76cb398492">
     <xsd:element name="properties">
@@ -2013,15 +2030,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2029,6 +2037,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{554579C4-AB49-4DF2-AFE6-C519C8775843}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF8F64BF-DA4F-4AD2-B9ED-9C10B5D873A4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2040,14 +2056,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{554579C4-AB49-4DF2-AFE6-C519C8775843}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
